--- a/data/trans_orig/P22_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P22_R-Clase-trans_orig.xlsx
@@ -791,19 +791,19 @@
         <v>62013</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>49518</v>
+        <v>48472</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>77837</v>
+        <v>76905</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1313069677647494</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1048501276414472</v>
+        <v>0.102635740156774</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1648144274998478</v>
+        <v>0.1628407651886244</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -812,19 +812,19 @@
         <v>39088</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>27971</v>
+        <v>28458</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>51646</v>
+        <v>52743</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1274537144555584</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09120667713521526</v>
+        <v>0.09279457637961171</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1684049896304047</v>
+        <v>0.1719797515638018</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>100</v>
@@ -833,19 +833,19 @@
         <v>101100</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>83811</v>
+        <v>82271</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>122144</v>
+        <v>121063</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1297899095301988</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1075946037213822</v>
+        <v>0.1056169001470543</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1568055510386334</v>
+        <v>0.155417817703685</v>
       </c>
     </row>
     <row r="6">
@@ -862,19 +862,19 @@
         <v>49194</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>36530</v>
+        <v>37524</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>64052</v>
+        <v>63224</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1041652972017132</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07734923473242949</v>
+        <v>0.07945488246220692</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1356246691209265</v>
+        <v>0.1338718563453507</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>31</v>
@@ -883,19 +883,19 @@
         <v>32040</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22831</v>
+        <v>22857</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>44917</v>
+        <v>44961</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.104474885051697</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07444500442881768</v>
+        <v>0.07453194412047622</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1464633426569553</v>
+        <v>0.1466047778831925</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>79</v>
@@ -904,19 +904,19 @@
         <v>81235</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>64111</v>
+        <v>64787</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>98992</v>
+        <v>98562</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1042871845419549</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08230363299833551</v>
+        <v>0.08317158909900883</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1270831651904759</v>
+        <v>0.1265319762157555</v>
       </c>
     </row>
     <row r="7">
@@ -933,19 +933,19 @@
         <v>361066</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>342763</v>
+        <v>341924</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>379123</v>
+        <v>379306</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7645277350335373</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7257737241997537</v>
+        <v>0.7239965650398559</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8027618074926608</v>
+        <v>0.8031498251088175</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>230</v>
@@ -954,19 +954,19 @@
         <v>235552</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>219055</v>
+        <v>219774</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>249972</v>
+        <v>250487</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7680714004927446</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7142779454951357</v>
+        <v>0.716623730532937</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8150893704142333</v>
+        <v>0.8167693149950254</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>573</v>
@@ -975,19 +975,19 @@
         <v>596618</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>570462</v>
+        <v>570128</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>619452</v>
+        <v>619037</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7659229059278463</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7323443772647852</v>
+        <v>0.7319151609106452</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7952368312504087</v>
+        <v>0.7947035780575681</v>
       </c>
     </row>
     <row r="8">
@@ -1126,19 +1126,19 @@
         <v>38465</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27209</v>
+        <v>26698</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54302</v>
+        <v>53219</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1048287327968189</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0741533751122616</v>
+        <v>0.07276092187234914</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1479895107773387</v>
+        <v>0.1450382583115174</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -1147,19 +1147,19 @@
         <v>34938</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25184</v>
+        <v>24299</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47224</v>
+        <v>46636</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09395445563003377</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06772278015833715</v>
+        <v>0.06534453040180459</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1269924517753301</v>
+        <v>0.1254121093510092</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>66</v>
@@ -1168,19 +1168,19 @@
         <v>73404</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>57545</v>
+        <v>55930</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>91105</v>
+        <v>92401</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09935530688959184</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07788982356463166</v>
+        <v>0.07570349461810903</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1233154164544176</v>
+        <v>0.1250695072354096</v>
       </c>
     </row>
     <row r="11">
@@ -1197,19 +1197,19 @@
         <v>44390</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>32262</v>
+        <v>32632</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>57800</v>
+        <v>59745</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1209756770149794</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08792435758598206</v>
+        <v>0.08893049561417975</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1575222710832494</v>
+        <v>0.1628218093041565</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>19</v>
@@ -1218,19 +1218,19 @@
         <v>20198</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12552</v>
+        <v>12705</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>31090</v>
+        <v>30327</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05431450232942302</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03375520119516433</v>
+        <v>0.03416536736755481</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08360559589418447</v>
+        <v>0.08155382254177498</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>61</v>
@@ -1239,19 +1239,19 @@
         <v>64588</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>52014</v>
+        <v>49904</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>84109</v>
+        <v>81007</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08742264218480478</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0704037611056222</v>
+        <v>0.0675478021865686</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1138451867230301</v>
+        <v>0.1096470272386957</v>
       </c>
     </row>
     <row r="12">
@@ -1268,19 +1268,19 @@
         <v>284079</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>265909</v>
+        <v>266351</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>299697</v>
+        <v>298292</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7741955901882016</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7246773298906658</v>
+        <v>0.7258824157572863</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8167598847246049</v>
+        <v>0.8129309893220897</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>310</v>
@@ -1289,19 +1289,19 @@
         <v>316729</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>302107</v>
+        <v>302809</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>329180</v>
+        <v>329168</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8517310420405432</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8124094310840694</v>
+        <v>0.8142969190149663</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8852138901814414</v>
+        <v>0.8851819149628128</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>586</v>
@@ -1310,19 +1310,19 @@
         <v>600808</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>578719</v>
+        <v>576336</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>621510</v>
+        <v>622139</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8132220509256034</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7833240426224365</v>
+        <v>0.7800981324924149</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8412437424979879</v>
+        <v>0.8420956621576647</v>
       </c>
     </row>
     <row r="13">
@@ -1461,19 +1461,19 @@
         <v>35104</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>25503</v>
+        <v>24056</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>48722</v>
+        <v>47811</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0648183427526401</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04709125825333598</v>
+        <v>0.04441872644705655</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08996506433827965</v>
+        <v>0.08828145785116044</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7595</v>
+        <v>6637</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01292485394544306</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04526443701116687</v>
+        <v>0.03955775217446805</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>35</v>
@@ -1503,19 +1503,19 @@
         <v>37272</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>26349</v>
+        <v>26959</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>51209</v>
+        <v>51957</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.05254406291578619</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03714555857838463</v>
+        <v>0.03800555297166174</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07219076711932988</v>
+        <v>0.07324539715113279</v>
       </c>
     </row>
     <row r="16">
@@ -1532,19 +1532,19 @@
         <v>3500</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9517</v>
+        <v>8891</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006462961725124872</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001684387831769905</v>
+        <v>0.001675684458415442</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01757292775788183</v>
+        <v>0.01641628392010581</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1553,19 +1553,19 @@
         <v>7314</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2921</v>
+        <v>3100</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14534</v>
+        <v>14339</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04359443299716569</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01740947910043835</v>
+        <v>0.01847790021125468</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08662566061035971</v>
+        <v>0.0854600656364821</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -1574,19 +1574,19 @@
         <v>10815</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5422</v>
+        <v>5099</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19461</v>
+        <v>18291</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01524560632318709</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007644006792898857</v>
+        <v>0.007188333346960558</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02743474808847001</v>
+        <v>0.02578491822356453</v>
       </c>
     </row>
     <row r="17">
@@ -1603,19 +1603,19 @@
         <v>502967</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>488424</v>
+        <v>489561</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>512716</v>
+        <v>513731</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9287186955222351</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9018643972757312</v>
+        <v>0.9039646757305935</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.946719201220524</v>
+        <v>0.9485933279443327</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>155</v>
@@ -1624,19 +1624,19 @@
         <v>158299</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>150176</v>
+        <v>150854</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>163444</v>
+        <v>163144</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9434807130573912</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8950679520906745</v>
+        <v>0.8991096314546517</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9741478335544957</v>
+        <v>0.9723566096795092</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>649</v>
@@ -1645,19 +1645,19 @@
         <v>661266</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>645524</v>
+        <v>646235</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>673732</v>
+        <v>674229</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9322103307610268</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9100183752630537</v>
+        <v>0.9110202250040008</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9497835076431671</v>
+        <v>0.950484907946632</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>4337</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11685</v>
+        <v>12586</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003511567263753632</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0008374339498508112</v>
+        <v>0.0008385776562082654</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.009460033648302181</v>
+        <v>0.01019002781020623</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1783,19 +1783,19 @@
         <v>4337</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>12000</v>
+        <v>11935</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.002224923954523501</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0005305651754875629</v>
+        <v>0.0005328712402509745</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.006155362361514435</v>
+        <v>0.006122183412021991</v>
       </c>
     </row>
     <row r="20">
@@ -1812,19 +1812,19 @@
         <v>56486</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>43054</v>
+        <v>43422</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>71527</v>
+        <v>73046</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04573073720018787</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03485638199314655</v>
+        <v>0.03515421176519375</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05790843400531611</v>
+        <v>0.05913817814749319</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>28</v>
@@ -1833,19 +1833,19 @@
         <v>28695</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>18871</v>
+        <v>19921</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>40463</v>
+        <v>41078</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0401730488988855</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02641981010762239</v>
+        <v>0.02788875659586602</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05664764932475599</v>
+        <v>0.05750986577221112</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>84</v>
@@ -1854,19 +1854,19 @@
         <v>85181</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>68190</v>
+        <v>68589</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>105411</v>
+        <v>106918</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04369439219222878</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03497906867115383</v>
+        <v>0.03518367799750577</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05407176873673046</v>
+        <v>0.05484473811498977</v>
       </c>
     </row>
     <row r="21">
@@ -1883,19 +1883,19 @@
         <v>10153</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5396</v>
+        <v>5465</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>18463</v>
+        <v>17893</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.008220211815059391</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.004368409198183133</v>
+        <v>0.004424578805745274</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01494756890355586</v>
+        <v>0.0144863433205085</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>19</v>
@@ -1904,19 +1904,19 @@
         <v>19589</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>12750</v>
+        <v>12148</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>30730</v>
+        <v>30212</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02742511391197001</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01785027558517023</v>
+        <v>0.01700710109523485</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04302142879926657</v>
+        <v>0.04229716400351773</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>30</v>
@@ -1925,19 +1925,19 @@
         <v>29743</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>21618</v>
+        <v>20013</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>43684</v>
+        <v>41478</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01525691563744226</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01108914877881828</v>
+        <v>0.01026605092743756</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02240819474747851</v>
+        <v>0.02127649474150118</v>
       </c>
     </row>
     <row r="22">
@@ -1954,19 +1954,19 @@
         <v>1164200</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1147154</v>
+        <v>1146696</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1179509</v>
+        <v>1179526</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9425374837209991</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9287373577332227</v>
+        <v>0.9283661869098799</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9549319474278862</v>
+        <v>0.9549458267339335</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>647</v>
@@ -1975,19 +1975,19 @@
         <v>666001</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>650935</v>
+        <v>651190</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>677630</v>
+        <v>678490</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9324018371891445</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9113094258770132</v>
+        <v>0.9116674239611205</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9486835810974387</v>
+        <v>0.9498870805289725</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1798</v>
@@ -1996,19 +1996,19 @@
         <v>1830200</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1806566</v>
+        <v>1806954</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1850459</v>
+        <v>1850602</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9388237682158055</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9267001471160173</v>
+        <v>0.9268992266199277</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9492158217679427</v>
+        <v>0.9492888986036248</v>
       </c>
     </row>
     <row r="23">
@@ -2103,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9853</v>
+        <v>8805</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.005026776275752798</v>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02810611342992632</v>
+        <v>0.02511715318568197</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8342</v>
+        <v>8845</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001916838119437325</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.009074092750443708</v>
+        <v>0.009620869332426464</v>
       </c>
     </row>
     <row r="25">
@@ -2163,19 +2163,19 @@
         <v>16676</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9946</v>
+        <v>10078</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>26795</v>
+        <v>27201</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04756966149273152</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02837083651494631</v>
+        <v>0.02874865543526603</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07643702975194637</v>
+        <v>0.07759449778619835</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>15</v>
@@ -2184,19 +2184,19 @@
         <v>15655</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9012</v>
+        <v>9694</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>24904</v>
+        <v>26587</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02752489179714719</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01584491591371258</v>
+        <v>0.01704482684554406</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0437863614934085</v>
+        <v>0.04674692299679873</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>32</v>
@@ -2205,19 +2205,19 @@
         <v>32331</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>22616</v>
+        <v>21546</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>44551</v>
+        <v>43626</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03516847419272219</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02460068741661138</v>
+        <v>0.02343698539190123</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04846118302271602</v>
+        <v>0.0474551594872069</v>
       </c>
     </row>
     <row r="26">
@@ -2234,19 +2234,19 @@
         <v>9587</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4829</v>
+        <v>4822</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>16699</v>
+        <v>16588</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02734768145268217</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01377624028696179</v>
+        <v>0.01375654018914099</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04763558436597388</v>
+        <v>0.04731787905420809</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>17</v>
@@ -2255,19 +2255,19 @@
         <v>19482</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>11006</v>
+        <v>11654</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>30197</v>
+        <v>30700</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03425315901993878</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01935142067211692</v>
+        <v>0.02049023983096115</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05309303260446592</v>
+        <v>0.05397798868249738</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>27</v>
@@ -2276,19 +2276,19 @@
         <v>29068</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>19072</v>
+        <v>18432</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>41693</v>
+        <v>41460</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03161992413783644</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02074578207224674</v>
+        <v>0.02004941424276324</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.04535285878951015</v>
+        <v>0.04509872853710577</v>
       </c>
     </row>
     <row r="27">
@@ -2305,19 +2305,19 @@
         <v>322530</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>310854</v>
+        <v>310429</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>331541</v>
+        <v>332029</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9200558807788335</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8867487625539893</v>
+        <v>0.885536012193059</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9457615335753302</v>
+        <v>0.9471530908553881</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>507</v>
@@ -2326,19 +2326,19 @@
         <v>533616</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>520955</v>
+        <v>520209</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>544841</v>
+        <v>544918</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.938221949182914</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9159619933222732</v>
+        <v>0.9146503274959372</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9579583452380175</v>
+        <v>0.9580947579654073</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>819</v>
@@ -2347,19 +2347,19 @@
         <v>856146</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>839461</v>
+        <v>839302</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>870904</v>
+        <v>870498</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9312947635500041</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9131450112064787</v>
+        <v>0.9129720879817412</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9473485366500884</v>
+        <v>0.9469069962111234</v>
       </c>
     </row>
     <row r="28">
@@ -2467,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>6266</v>
+        <v>7745</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.001596859044002529</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.005025541987871114</v>
+        <v>0.006212030362717117</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7014</v>
+        <v>7082</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.001289409758127285</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.00454288872460613</v>
+        <v>0.004586838237409047</v>
       </c>
     </row>
     <row r="30">
@@ -2514,19 +2514,19 @@
         <v>5974</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2543</v>
+        <v>2525</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11231</v>
+        <v>11281</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02009462616926671</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.008555455755028191</v>
+        <v>0.008495492486123113</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03778113290482929</v>
+        <v>0.03794776559618371</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>54</v>
@@ -2535,19 +2535,19 @@
         <v>55018</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>41527</v>
+        <v>42411</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>69592</v>
+        <v>69603</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04412990627172318</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03330853473524302</v>
+        <v>0.03401785079244313</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05581917651855146</v>
+        <v>0.05582827894577827</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>61</v>
@@ -2556,19 +2556,19 @@
         <v>60992</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>48265</v>
+        <v>47087</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>80984</v>
+        <v>77574</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03950230327127952</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03125950402506217</v>
+        <v>0.03049691669754664</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05245073553491909</v>
+        <v>0.05024233167919429</v>
       </c>
     </row>
     <row r="31">
@@ -2585,19 +2585,19 @@
         <v>11569</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6375</v>
+        <v>6489</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>19842</v>
+        <v>19646</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03891831958951322</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02144490208671595</v>
+        <v>0.02182682111197064</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06674723977848208</v>
+        <v>0.06608733502764977</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>46</v>
@@ -2606,19 +2606,19 @@
         <v>47487</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>36100</v>
+        <v>36443</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>61322</v>
+        <v>62302</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03808901428164921</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02895588894193486</v>
+        <v>0.02923080437220061</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0491863225226269</v>
+        <v>0.04997248324490656</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>58</v>
@@ -2627,19 +2627,19 @@
         <v>59056</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>44105</v>
+        <v>45707</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>74532</v>
+        <v>74953</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03824868355592419</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02856520100293099</v>
+        <v>0.02960261374017987</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04827159380634303</v>
+        <v>0.04854436203486494</v>
       </c>
     </row>
     <row r="32">
@@ -2656,19 +2656,19 @@
         <v>279730</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>271065</v>
+        <v>270465</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>286378</v>
+        <v>286229</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9409870542412201</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9118396733950668</v>
+        <v>0.9098219048465501</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9633509710266255</v>
+        <v>0.9628500278971565</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1134</v>
@@ -2677,19 +2677,19 @@
         <v>1142236</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1122190</v>
+        <v>1122210</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1159774</v>
+        <v>1160116</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.916184220402625</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9001052554735138</v>
+        <v>0.9001212169332027</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9302509561796806</v>
+        <v>0.9305258648122107</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1420</v>
@@ -2698,19 +2698,19 @@
         <v>1421966</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1399589</v>
+        <v>1400001</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1440960</v>
+        <v>1441958</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.920959603414669</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9064663775674676</v>
+        <v>0.9067331653867466</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9332614430298767</v>
+        <v>0.9339077333149846</v>
       </c>
     </row>
     <row r="33">
@@ -2802,19 +2802,19 @@
         <v>6100</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1653</v>
+        <v>1660</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>14402</v>
+        <v>15433</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.001868864459135373</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0005065747166081898</v>
+        <v>0.000508468736117618</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.004412767455026336</v>
+        <v>0.0047285986122407</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>6385</v>
+        <v>7012</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0005896914938698938</v>
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.001891222318348706</v>
+        <v>0.002077069758427539</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>6</v>
@@ -2844,19 +2844,19 @@
         <v>8090</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2922</v>
+        <v>3417</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>17004</v>
+        <v>18590</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.001218459249825927</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0004400106886083836</v>
+        <v>0.0005146040289011416</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.002560962442200445</v>
+        <v>0.002799757529693788</v>
       </c>
     </row>
     <row r="35">
@@ -2873,19 +2873,19 @@
         <v>214717</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>182948</v>
+        <v>187602</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>242775</v>
+        <v>244649</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.06578765315158518</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05605399308722367</v>
+        <v>0.05748008527692319</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.07438451166416309</v>
+        <v>0.07495886900013943</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>170</v>
@@ -2894,19 +2894,19 @@
         <v>175562</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>151173</v>
+        <v>151613</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>200450</v>
+        <v>202951</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0520016227682096</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04477755578671409</v>
+        <v>0.04490784651076675</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.05937326774691368</v>
+        <v>0.0601140385949673</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>378</v>
@@ -2915,19 +2915,19 @@
         <v>390279</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>351964</v>
+        <v>351768</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>427034</v>
+        <v>428866</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.05877804130039595</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05300752894022575</v>
+        <v>0.05297800861865903</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.06431356004364176</v>
+        <v>0.06458944702636296</v>
       </c>
     </row>
     <row r="36">
@@ -2944,19 +2944,19 @@
         <v>128394</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>109383</v>
+        <v>108257</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>152100</v>
+        <v>156503</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03933913086272802</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03351423832598724</v>
+        <v>0.03316904725456163</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04660235634234795</v>
+        <v>0.04795155210013936</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>139</v>
@@ -2965,19 +2965,19 @@
         <v>146110</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>122209</v>
+        <v>124324</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>170274</v>
+        <v>170941</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04327782490902484</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0361981969791131</v>
+        <v>0.03682473963421681</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.05043526082847152</v>
+        <v>0.05063272307397437</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>266</v>
@@ -2986,19 +2986,19 @@
         <v>274504</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>240942</v>
+        <v>242746</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>307952</v>
+        <v>308395</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.04134178976433785</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03628716604900963</v>
+        <v>0.03655878497711652</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04637910794123221</v>
+        <v>0.04644583676322191</v>
       </c>
     </row>
     <row r="37">
@@ -3015,19 +3015,19 @@
         <v>2914572</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2881637</v>
+        <v>2877421</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>2951696</v>
+        <v>2952239</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.8930043515265514</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8829135646315387</v>
+        <v>0.8816216613468891</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9043789531352262</v>
+        <v>0.9045454805960177</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2983</v>
@@ -3036,19 +3036,19 @@
         <v>3052433</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3017014</v>
+        <v>3014665</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>3086693</v>
+        <v>3084862</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9041308608288957</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.8936397966601441</v>
+        <v>0.8929440049999002</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9142788681167038</v>
+        <v>0.9137364998796563</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>5845</v>
@@ -3057,19 +3057,19 @@
         <v>5967004</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>5920299</v>
+        <v>5917834</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>6016148</v>
+        <v>6016817</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.8986617096854402</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.8916277494967019</v>
+        <v>0.8912563631811105</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9060630685650013</v>
+        <v>0.9061637798581037</v>
       </c>
     </row>
     <row r="38">
@@ -3450,19 +3450,19 @@
         <v>43780</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30934</v>
+        <v>32450</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>59494</v>
+        <v>58011</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1001343438370157</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07075399971476157</v>
+        <v>0.07421947507232626</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1360770777228759</v>
+        <v>0.1326837654381669</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>31</v>
@@ -3471,19 +3471,19 @@
         <v>34879</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>24599</v>
+        <v>24606</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>47402</v>
+        <v>48401</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1109196967928348</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07822881788620176</v>
+        <v>0.07824862786448823</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1507448894648766</v>
+        <v>0.1539207267763419</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>71</v>
@@ -3492,19 +3492,19 @@
         <v>78659</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>62405</v>
+        <v>62884</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>98531</v>
+        <v>100071</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1046463271919132</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0830217565562449</v>
+        <v>0.08366011495968349</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1310835109336778</v>
+        <v>0.1331318608438949</v>
       </c>
     </row>
     <row r="6">
@@ -3521,19 +3521,19 @@
         <v>56411</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>43309</v>
+        <v>41477</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>72899</v>
+        <v>74209</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1290240091294937</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09905685728216444</v>
+        <v>0.09486715904457511</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.166736791360995</v>
+        <v>0.1697338351490376</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>29</v>
@@ -3542,19 +3542,19 @@
         <v>32333</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22120</v>
+        <v>22079</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>45328</v>
+        <v>46448</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1028233221375947</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07034336511082091</v>
+        <v>0.07021322502936099</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1441489974001851</v>
+        <v>0.1477107540901138</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>78</v>
@@ -3563,19 +3563,19 @@
         <v>88744</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>71077</v>
+        <v>69395</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>111961</v>
+        <v>107066</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1180631194786319</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09455969534507794</v>
+        <v>0.0923210652094397</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1489512205768817</v>
+        <v>0.1424384667810668</v>
       </c>
     </row>
     <row r="7">
@@ -3592,19 +3592,19 @@
         <v>337020</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>318042</v>
+        <v>315495</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>356384</v>
+        <v>356416</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7708416470334907</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7274346307666745</v>
+        <v>0.7216085219056499</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8151298776719442</v>
+        <v>0.8152041387302267</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>223</v>
@@ -3613,19 +3613,19 @@
         <v>247242</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>230980</v>
+        <v>230426</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>261299</v>
+        <v>261870</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7862569810695705</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.734541737491571</v>
+        <v>0.7327810620541937</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8309612253548139</v>
+        <v>0.8327764658958045</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>538</v>
@@ -3634,19 +3634,19 @@
         <v>584262</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>559373</v>
+        <v>557753</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>607639</v>
+        <v>607450</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7772905533294548</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7441783050805788</v>
+        <v>0.7420233127861929</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8083909255621711</v>
+        <v>0.8081387050936486</v>
       </c>
     </row>
     <row r="8">
@@ -3785,19 +3785,19 @@
         <v>35564</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24623</v>
+        <v>25115</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50129</v>
+        <v>50140</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08491911211142293</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05879542565032613</v>
+        <v>0.05996862314194088</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1196976606737807</v>
+        <v>0.1197232000014337</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -3806,19 +3806,19 @@
         <v>31674</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21622</v>
+        <v>21631</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45335</v>
+        <v>43761</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0937080104073247</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06396883783412567</v>
+        <v>0.06399427683652038</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1341231722755421</v>
+        <v>0.1294652268968829</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -3827,19 +3827,19 @@
         <v>67238</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>51020</v>
+        <v>51876</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>83942</v>
+        <v>87036</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08884447355969821</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06741457413564406</v>
+        <v>0.0685453611780153</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.110915957040158</v>
+        <v>0.1150038372577576</v>
       </c>
     </row>
     <row r="11">
@@ -3856,19 +3856,19 @@
         <v>72915</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>56871</v>
+        <v>57182</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>93663</v>
+        <v>94117</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1741069584527317</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1357966246844789</v>
+        <v>0.1365390842077556</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2236467063852765</v>
+        <v>0.2247322093347767</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>18</v>
@@ -3877,19 +3877,19 @@
         <v>25170</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15449</v>
+        <v>16014</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>39510</v>
+        <v>39120</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07446458360277906</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0457044053265241</v>
+        <v>0.04737763782634652</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1168883445531122</v>
+        <v>0.1157359861662493</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>76</v>
@@ -3898,19 +3898,19 @@
         <v>98085</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>79744</v>
+        <v>77332</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>123119</v>
+        <v>121081</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1296039589092073</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1053690862562763</v>
+        <v>0.1021815537002991</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1626814726039549</v>
+        <v>0.1599887980200594</v>
       </c>
     </row>
     <row r="12">
@@ -3927,19 +3927,19 @@
         <v>310318</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>287508</v>
+        <v>288719</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>327458</v>
+        <v>327429</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7409739294358454</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6865100996398761</v>
+        <v>0.6893999402344746</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7819020472748794</v>
+        <v>0.781832516940426</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>258</v>
@@ -3948,19 +3948,19 @@
         <v>281167</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>262220</v>
+        <v>263551</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>294781</v>
+        <v>294338</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8318274059898962</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7757733571269481</v>
+        <v>0.779711232938764</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8721043790580403</v>
+        <v>0.8707952810247307</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>543</v>
@@ -3969,19 +3969,19 @@
         <v>591484</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>565872</v>
+        <v>562878</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>616911</v>
+        <v>615461</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7815515675310944</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7477087369218949</v>
+        <v>0.7437521501604836</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8151481989588073</v>
+        <v>0.8132322190240311</v>
       </c>
     </row>
     <row r="13">
@@ -4120,19 +4120,19 @@
         <v>26465</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17260</v>
+        <v>17175</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>38799</v>
+        <v>39501</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.04204671099123067</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02742215701895365</v>
+        <v>0.02728786031954629</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06164264274416659</v>
+        <v>0.06275860181138375</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>11</v>
@@ -4141,19 +4141,19 @@
         <v>11095</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>5955</v>
+        <v>5058</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>19296</v>
+        <v>18027</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04265005938656061</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02289357267607435</v>
+        <v>0.01944414795922644</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07417989054800204</v>
+        <v>0.06929900881985657</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>35</v>
@@ -4162,19 +4162,19 @@
         <v>37559</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>26083</v>
+        <v>27240</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>51486</v>
+        <v>53370</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04222314816590398</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02932132142549119</v>
+        <v>0.03062190522351605</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05787929043645056</v>
+        <v>0.05999654519324085</v>
       </c>
     </row>
     <row r="16">
@@ -4191,19 +4191,19 @@
         <v>5764</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1919</v>
+        <v>1923</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12756</v>
+        <v>14162</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009157555434292707</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003049281973357775</v>
+        <v>0.003054651437582584</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0202667143587928</v>
+        <v>0.02250082409711133</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -4212,19 +4212,19 @@
         <v>8057</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3091</v>
+        <v>3188</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15469</v>
+        <v>16127</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03097230001062009</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01188067037469283</v>
+        <v>0.01225480102447384</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05946576071278929</v>
+        <v>0.06199689976046831</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -4233,19 +4233,19 @@
         <v>13821</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7764</v>
+        <v>7080</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25191</v>
+        <v>24227</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01553684131465414</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008728624790349348</v>
+        <v>0.007958630717881275</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0283188235032274</v>
+        <v>0.02723560998860985</v>
       </c>
     </row>
     <row r="17">
@@ -4262,19 +4262,19 @@
         <v>597186</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>583664</v>
+        <v>582327</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>607448</v>
+        <v>607728</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9487957335744767</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9273119971809125</v>
+        <v>0.9251884194247006</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9650990197587277</v>
+        <v>0.9655445621949156</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>226</v>
@@ -4283,19 +4283,19 @@
         <v>240978</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>230681</v>
+        <v>230873</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>248237</v>
+        <v>248350</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9263776406028194</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.886795098941435</v>
+        <v>0.8875316575184244</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9542859181431074</v>
+        <v>0.9547167657237329</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>788</v>
@@ -4304,19 +4304,19 @@
         <v>838164</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>821751</v>
+        <v>822062</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>852002</v>
+        <v>851373</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9422400105194418</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9237887383428833</v>
+        <v>0.9241388482842384</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9577961515873722</v>
+        <v>0.9570897246847954</v>
       </c>
     </row>
     <row r="18">
@@ -4424,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5545</v>
+        <v>6004</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.001559479593881458</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.007232945563139638</v>
+        <v>0.007831583077886126</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -4445,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5948</v>
+        <v>6888</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0006211854926770361</v>
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.003090270019222238</v>
+        <v>0.003578902920655822</v>
       </c>
     </row>
     <row r="20">
@@ -4471,19 +4471,19 @@
         <v>38304</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>27562</v>
+        <v>26968</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>52276</v>
+        <v>52203</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03307721044643729</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02380103307696213</v>
+        <v>0.02328816835179944</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04514246820434517</v>
+        <v>0.04507886223812986</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>28</v>
@@ -4492,19 +4492,19 @@
         <v>29209</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>19633</v>
+        <v>19905</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>42361</v>
+        <v>40226</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03809940369457373</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02560922067995146</v>
+        <v>0.0259627617492845</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05525367964025897</v>
+        <v>0.05246926563001083</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>65</v>
@@ -4513,19 +4513,19 @@
         <v>67514</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>51671</v>
+        <v>51591</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>84601</v>
+        <v>85303</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03507769419717244</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02684667251869411</v>
+        <v>0.02680470732410296</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04395576722377237</v>
+        <v>0.04432060555638431</v>
       </c>
     </row>
     <row r="21">
@@ -4542,19 +4542,19 @@
         <v>5755</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2025</v>
+        <v>1951</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11473</v>
+        <v>13247</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.004969506329395664</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.001748535595402935</v>
+        <v>0.001684805472152398</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.00990698124449706</v>
+        <v>0.01143965817302409</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>12</v>
@@ -4563,19 +4563,19 @@
         <v>14946</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8167</v>
+        <v>7874</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>25630</v>
+        <v>25982</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01949531174963287</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01065292097761627</v>
+        <v>0.01027093567215261</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03343121728220651</v>
+        <v>0.03389016517737902</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>18</v>
@@ -4584,19 +4584,19 @@
         <v>20701</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>12911</v>
+        <v>12879</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>32256</v>
+        <v>32698</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01075555164342412</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0067082298793682</v>
+        <v>0.006691630362380041</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01675906735387745</v>
+        <v>0.01698867991119744</v>
       </c>
     </row>
     <row r="22">
@@ -4613,19 +4613,19 @@
         <v>1113969</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1099723</v>
+        <v>1098716</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1125433</v>
+        <v>1125821</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9619532832241671</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9496517801434315</v>
+        <v>0.9487822480516623</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9718527235565088</v>
+        <v>0.9721884716565105</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>670</v>
@@ -4634,19 +4634,19 @@
         <v>721306</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>707398</v>
+        <v>705616</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>734269</v>
+        <v>732927</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9408458049619119</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9227052850220226</v>
+        <v>0.9203801840920526</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9577538810920546</v>
+        <v>0.9560043536317838</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1709</v>
@@ -4655,19 +4655,19 @@
         <v>1835275</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1816269</v>
+        <v>1815041</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1853850</v>
+        <v>1852624</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9535455686667264</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9436706796436247</v>
+        <v>0.9430328874671497</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9631968014107144</v>
+        <v>0.9625594117962614</v>
       </c>
     </row>
     <row r="23">
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8545</v>
+        <v>8585</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.004785838456921273</v>
@@ -4771,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01673481707868982</v>
+        <v>0.01681401683492986</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8567</v>
+        <v>7630</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001920915631835899</v>
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.006734785410403667</v>
+        <v>0.005997942028391666</v>
       </c>
     </row>
     <row r="25">
@@ -4822,19 +4822,19 @@
         <v>7846</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3757</v>
+        <v>3782</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14604</v>
+        <v>15495</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01536569981325304</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007357930307326625</v>
+        <v>0.007407498470533738</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02860113922517889</v>
+        <v>0.03034630285635826</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>11</v>
@@ -4843,19 +4843,19 @@
         <v>11306</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5396</v>
+        <v>6057</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>18896</v>
+        <v>20285</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01484614631203617</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007086223394841236</v>
+        <v>0.007953667954926965</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02481297182021748</v>
+        <v>0.02663691787406595</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>19</v>
@@ -4864,19 +4864,19 @@
         <v>19151</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>12424</v>
+        <v>11291</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>30202</v>
+        <v>29343</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01505468206831921</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.009766346382151502</v>
+        <v>0.008875981481603594</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02374174645103659</v>
+        <v>0.02306586786839152</v>
       </c>
     </row>
     <row r="26">
@@ -4893,19 +4893,19 @@
         <v>3564</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>906</v>
+        <v>887</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8983</v>
+        <v>8612</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.00697949162244348</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001774956734180137</v>
+        <v>0.001736211258281561</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0175933405486893</v>
+        <v>0.01686707183510401</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -4914,19 +4914,19 @@
         <v>9421</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4876</v>
+        <v>4119</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>17816</v>
+        <v>16411</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01237098757148048</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.006403075763568484</v>
+        <v>0.005409521973004872</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02339528209853403</v>
+        <v>0.02154976297112026</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>13</v>
@@ -4935,19 +4935,19 @@
         <v>12984</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7113</v>
+        <v>7669</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>21937</v>
+        <v>21747</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01020697619903071</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005591735001811977</v>
+        <v>0.006028578785229409</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01724434371561983</v>
+        <v>0.01709547604283449</v>
       </c>
     </row>
     <row r="27">
@@ -4964,19 +4964,19 @@
         <v>496743</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>487614</v>
+        <v>488054</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>502413</v>
+        <v>502456</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9728689701073822</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9549904985720015</v>
+        <v>0.9558522681969859</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9839734638864884</v>
+        <v>0.9840569191980288</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>683</v>
@@ -4985,19 +4985,19 @@
         <v>740796</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>729740</v>
+        <v>731204</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>748982</v>
+        <v>749195</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9727828661164833</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9582655668999875</v>
+        <v>0.9601873253849371</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9835323214254176</v>
+        <v>0.983812562162281</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1156</v>
@@ -5006,19 +5006,19 @@
         <v>1237539</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1223635</v>
+        <v>1225104</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1247295</v>
+        <v>1248067</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9728174261008142</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9618877069532613</v>
+        <v>0.9630424829123729</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9804871348371852</v>
+        <v>0.9810935367489058</v>
       </c>
     </row>
     <row r="28">
@@ -5113,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6514</v>
+        <v>6404</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.00475181805929595</v>
@@ -5122,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02440810390091318</v>
+        <v>0.0239942754910424</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6927</v>
+        <v>6378</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.000921482182891181</v>
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.005033390767174619</v>
+        <v>0.004634221258168042</v>
       </c>
     </row>
     <row r="30">
@@ -5173,19 +5173,19 @@
         <v>5703</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2701</v>
+        <v>1946</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11502</v>
+        <v>11533</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02137003620977694</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01011994946185021</v>
+        <v>0.007292517511164293</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04309585211475336</v>
+        <v>0.04321247110052546</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>28</v>
@@ -5194,19 +5194,19 @@
         <v>31318</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>19796</v>
+        <v>21249</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>44428</v>
+        <v>44830</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02823135229082554</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01784511293904135</v>
+        <v>0.01915458200107573</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04004864183049168</v>
+        <v>0.04041077637586618</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>34</v>
@@ -5215,19 +5215,19 @@
         <v>37022</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>26325</v>
+        <v>26294</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>52633</v>
+        <v>50465</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02690079197875673</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0191281287987274</v>
+        <v>0.01910560638697415</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03824452438252381</v>
+        <v>0.03666926214428907</v>
       </c>
     </row>
     <row r="31">
@@ -5244,19 +5244,19 @@
         <v>13617</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>7350</v>
+        <v>7661</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>22799</v>
+        <v>23751</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05102183960231048</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02753936943734601</v>
+        <v>0.02870392888247269</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.085427065152758</v>
+        <v>0.08899606911048</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>29</v>
@@ -5265,19 +5265,19 @@
         <v>32572</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>22422</v>
+        <v>22219</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>47216</v>
+        <v>45477</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02936099452010498</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02021213803186997</v>
+        <v>0.02002859696786769</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.04256160818001194</v>
+        <v>0.04099380225851386</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>41</v>
@@ -5286,19 +5286,19 @@
         <v>46188</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>33172</v>
+        <v>32856</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>63025</v>
+        <v>61450</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03356150947260209</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02410343974006147</v>
+        <v>0.0238736697358489</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04579510865569406</v>
+        <v>0.04465119316842529</v>
       </c>
     </row>
     <row r="32">
@@ -5315,19 +5315,19 @@
         <v>246294</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>235841</v>
+        <v>235286</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>254192</v>
+        <v>254595</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9228563061286166</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8836893638883863</v>
+        <v>0.8816100063898027</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9524490666716775</v>
+        <v>0.9539607254502152</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>987</v>
@@ -5336,19 +5336,19 @@
         <v>1045461</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1026662</v>
+        <v>1026008</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1059947</v>
+        <v>1059361</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9424076531890695</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9254615937642479</v>
+        <v>0.9248720973461717</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9554657082626387</v>
+        <v>0.9549379633901377</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1233</v>
@@ -5357,19 +5357,19 @@
         <v>1291755</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1268495</v>
+        <v>1272403</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1308592</v>
+        <v>1309270</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.93861621636575</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9217155556784984</v>
+        <v>0.9245548049441003</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9508506880467225</v>
+        <v>0.9513429692124629</v>
       </c>
     </row>
     <row r="33">
@@ -5461,19 +5461,19 @@
         <v>3712</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>9938</v>
+        <v>9906</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.001085028711481338</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.000353425682796334</v>
+        <v>0.000352796949303085</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.002905186916362567</v>
+        <v>0.002895583469973363</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -5485,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5987</v>
+        <v>7174</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0003367730960282922</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.001686481519070049</v>
+        <v>0.002020727449237555</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4</v>
@@ -5503,19 +5503,19 @@
         <v>4907</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>12334</v>
+        <v>11834</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0007039670819634597</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0001769179274220972</v>
+        <v>0.0001769903811812322</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.001769307330120667</v>
+        <v>0.001697554345982361</v>
       </c>
     </row>
     <row r="35">
@@ -5532,19 +5532,19 @@
         <v>157662</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>132800</v>
+        <v>132071</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>183480</v>
+        <v>183966</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04608741846112017</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03881979323980367</v>
+        <v>0.0386067252286592</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05363468142296805</v>
+        <v>0.05377662508858788</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>138</v>
@@ -5553,19 +5553,19 @@
         <v>149481</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>126839</v>
+        <v>126251</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>175280</v>
+        <v>175500</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04210594723569928</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03572804138531244</v>
+        <v>0.03556238970216082</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04937289112853205</v>
+        <v>0.04943487293257702</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>285</v>
@@ -5574,19 +5574,19 @@
         <v>307143</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>273992</v>
+        <v>273666</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>343018</v>
+        <v>348241</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04405978795397213</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03930427485000194</v>
+        <v>0.0392574485438304</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04920606859875269</v>
+        <v>0.04995524779662548</v>
       </c>
     </row>
     <row r="36">
@@ -5603,19 +5603,19 @@
         <v>158025</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>134297</v>
+        <v>132099</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>190182</v>
+        <v>185545</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04619370511574664</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0392575646935121</v>
+        <v>0.0386148242042688</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05559363379275011</v>
+        <v>0.0542382952909051</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>104</v>
@@ -5624,19 +5624,19 @@
         <v>122499</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>100348</v>
+        <v>101361</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>147349</v>
+        <v>148306</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.034505414860473</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02826596531545139</v>
+        <v>0.02855125056912998</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0415052644657457</v>
+        <v>0.04177477648760382</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>238</v>
@@ -5645,19 +5645,19 @@
         <v>280524</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>246424</v>
+        <v>246935</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>317817</v>
+        <v>319628</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.04024124871051702</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03534964474378045</v>
+        <v>0.03542291264141742</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0455908911465692</v>
+        <v>0.04585080358703828</v>
       </c>
     </row>
     <row r="37">
@@ -5674,19 +5674,19 @@
         <v>3101530</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3063840</v>
+        <v>3066330</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>3137083</v>
+        <v>3137174</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9066338477116519</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8956164905411713</v>
+        <v>0.8963442607804945</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9170267775461998</v>
+        <v>0.9170533160135017</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3047</v>
@@ -5695,19 +5695,19 @@
         <v>3276950</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3240812</v>
+        <v>3241668</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>3307449</v>
+        <v>3310954</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9230518648077994</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.912872748264441</v>
+        <v>0.9131136283908083</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9316430693307455</v>
+        <v>0.9326301412592081</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>5967</v>
@@ -5716,19 +5716,19 @@
         <v>6378480</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>6329076</v>
+        <v>6327605</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>6429530</v>
+        <v>6425877</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9149949962535474</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9079079791319099</v>
+        <v>0.9076969791522664</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9223182215399878</v>
+        <v>0.9217942268421447</v>
       </c>
     </row>
     <row r="38">
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6167</v>
+        <v>6082</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002840447348979551</v>
@@ -6074,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01437243376218065</v>
+        <v>0.01417323082796753</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -6099,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6908</v>
+        <v>7329</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001570338343002144</v>
@@ -6108,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.008900373682982195</v>
+        <v>0.009442698576465463</v>
       </c>
     </row>
     <row r="5">
@@ -6125,19 +6125,19 @@
         <v>41814</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30765</v>
+        <v>29665</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>55185</v>
+        <v>54889</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09744717686265836</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07169735024376263</v>
+        <v>0.06913325003324659</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1286088862584365</v>
+        <v>0.1279200645825219</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>46</v>
@@ -6146,19 +6146,19 @@
         <v>51377</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>38205</v>
+        <v>38057</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>66549</v>
+        <v>67957</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.148037189405052</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1100825106045114</v>
+        <v>0.1096581327035884</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1917524076119584</v>
+        <v>0.1958095901697225</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>85</v>
@@ -6167,19 +6167,19 @@
         <v>93191</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>76244</v>
+        <v>74516</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>115094</v>
+        <v>113329</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1200685539375364</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09823381328897031</v>
+        <v>0.09600791563667399</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1482888273288537</v>
+        <v>0.1460148737228616</v>
       </c>
     </row>
     <row r="6">
@@ -6196,19 +6196,19 @@
         <v>65068</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>51230</v>
+        <v>49616</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>83650</v>
+        <v>82391</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1516401966775603</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1193918147343838</v>
+        <v>0.1156301456479824</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1949467238422239</v>
+        <v>0.1920134617658015</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>41</v>
@@ -6217,19 +6217,19 @@
         <v>42554</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>31631</v>
+        <v>31273</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>55702</v>
+        <v>55861</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1226134409004683</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09114126640745147</v>
+        <v>0.09010904443109856</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1605000701248103</v>
+        <v>0.1609570063317455</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>99</v>
@@ -6238,19 +6238,19 @@
         <v>107621</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>90491</v>
+        <v>88915</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>129940</v>
+        <v>130853</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1386608524415068</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.116589519010954</v>
+        <v>0.1145600266943484</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1674161079353277</v>
+        <v>0.1685932343489913</v>
       </c>
     </row>
     <row r="7">
@@ -6267,19 +6267,19 @@
         <v>320992</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>301671</v>
+        <v>301454</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>336823</v>
+        <v>339016</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7480721791108018</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7030450980172994</v>
+        <v>0.702538870035295</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7849663477852247</v>
+        <v>0.7900766447277571</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>245</v>
@@ -6288,19 +6288,19 @@
         <v>253124</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>236261</v>
+        <v>235551</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>269476</v>
+        <v>270618</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7293493696944796</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6807591631138846</v>
+        <v>0.6787128976516622</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7764644436361295</v>
+        <v>0.7797564855993937</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>543</v>
@@ -6309,19 +6309,19 @@
         <v>574116</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>545781</v>
+        <v>545308</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>597004</v>
+        <v>598585</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7397002552779547</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7031929025707871</v>
+        <v>0.7025840462398243</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7691893609345989</v>
+        <v>0.7712262991649159</v>
       </c>
     </row>
     <row r="8">
@@ -6460,19 +6460,19 @@
         <v>23299</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14953</v>
+        <v>14251</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34382</v>
+        <v>34422</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06192101246660867</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03973956224513965</v>
+        <v>0.03787411610926901</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09137663987037133</v>
+        <v>0.0914832948994274</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -6481,19 +6481,19 @@
         <v>34847</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24270</v>
+        <v>24799</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47531</v>
+        <v>48351</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09360551176319841</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06519348071050135</v>
+        <v>0.06661505076673925</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1276780120683703</v>
+        <v>0.1298799018087916</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>53</v>
@@ -6502,19 +6502,19 @@
         <v>58145</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>43726</v>
+        <v>43650</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>75200</v>
+        <v>75289</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07767881242507831</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05841492773363459</v>
+        <v>0.05831370337476101</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1004626987610229</v>
+        <v>0.1005815802381331</v>
       </c>
     </row>
     <row r="11">
@@ -6531,19 +6531,19 @@
         <v>56554</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>44269</v>
+        <v>42417</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>72305</v>
+        <v>71928</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1503053671210852</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1176543509180806</v>
+        <v>0.1127318827002861</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1921654923509265</v>
+        <v>0.1911641721141135</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>25</v>
@@ -6552,19 +6552,19 @@
         <v>26694</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17355</v>
+        <v>17726</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>38673</v>
+        <v>38867</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07170422482615056</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04661900666561452</v>
+        <v>0.04761469663575554</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1038842768183963</v>
+        <v>0.1044032869459174</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>78</v>
@@ -6573,19 +6573,19 @@
         <v>83248</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>65897</v>
+        <v>64576</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>102892</v>
+        <v>100660</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1112142940636644</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08803425497836677</v>
+        <v>0.08626953691393976</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1374581110176077</v>
+        <v>0.1344761167190586</v>
       </c>
     </row>
     <row r="12">
@@ -6602,19 +6602,19 @@
         <v>296410</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>279143</v>
+        <v>279801</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>311819</v>
+        <v>312699</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7877736204123061</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7418815674639776</v>
+        <v>0.7436322685129293</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8287255442610711</v>
+        <v>0.8310654215742967</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>295</v>
@@ -6623,19 +6623,19 @@
         <v>310733</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>295388</v>
+        <v>292755</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>325589</v>
+        <v>324592</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.834690263410651</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7934724142183754</v>
+        <v>0.7863999104922226</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.874596123981067</v>
+        <v>0.8719181892717718</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>574</v>
@@ -6644,19 +6644,19 @@
         <v>607144</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>582482</v>
+        <v>581746</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>627402</v>
+        <v>627881</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8111068935112573</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7781606973260092</v>
+        <v>0.7771766964085705</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8381704489040211</v>
+        <v>0.8388108039231804</v>
       </c>
     </row>
     <row r="13">
@@ -6751,7 +6751,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10092</v>
+        <v>8872</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003379597917440519</v>
@@ -6760,7 +6760,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01933718971021047</v>
+        <v>0.01699921570621453</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -6785,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7804</v>
+        <v>9401</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002563611720382409</v>
@@ -6794,7 +6794,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01134312997313243</v>
+        <v>0.01366387018162988</v>
       </c>
     </row>
     <row r="15">
@@ -6811,19 +6811,19 @@
         <v>14362</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8092</v>
+        <v>7468</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>24092</v>
+        <v>24938</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02751741702109014</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0155051664178489</v>
+        <v>0.01430910018024485</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0461610855870528</v>
+        <v>0.04778206297217525</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>8</v>
@@ -6832,19 +6832,19 @@
         <v>7755</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3778</v>
+        <v>3779</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>13537</v>
+        <v>14526</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04668379275361789</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02274340784923902</v>
+        <v>0.02274749452035232</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08148542289807913</v>
+        <v>0.08744028463507654</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>21</v>
@@ -6853,19 +6853,19 @@
         <v>22117</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>14296</v>
+        <v>14259</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>33497</v>
+        <v>33366</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0321450379474329</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02077841293224459</v>
+        <v>0.02072444570855739</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04868545569777939</v>
+        <v>0.04849420282575627</v>
       </c>
     </row>
     <row r="16">
@@ -6882,19 +6882,19 @@
         <v>3743</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10172</v>
+        <v>10684</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007171073020299852</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001952134526202042</v>
+        <v>0.001961196289377835</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01948978909977492</v>
+        <v>0.02047012102614256</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -6903,19 +6903,19 @@
         <v>4263</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1053</v>
+        <v>1266</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10705</v>
+        <v>10194</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.025659147203734</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006338495304866691</v>
+        <v>0.007621330333975614</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06444247143885749</v>
+        <v>0.06136465946605823</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -6924,19 +6924,19 @@
         <v>8005</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3260</v>
+        <v>3292</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16445</v>
+        <v>15937</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01163492159412481</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00473762330877604</v>
+        <v>0.004784898832412905</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02390092320701665</v>
+        <v>0.02316271872720704</v>
       </c>
     </row>
     <row r="17">
@@ -6953,19 +6953,19 @@
         <v>502046</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>488912</v>
+        <v>490977</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>509368</v>
+        <v>510728</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9619319120411695</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9367678002186011</v>
+        <v>0.9407243883092381</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9759621963043105</v>
+        <v>0.9785667834025252</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>141</v>
@@ -6974,19 +6974,19 @@
         <v>154105</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>146454</v>
+        <v>146318</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>160036</v>
+        <v>159960</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9276570600426481</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8816027744802787</v>
+        <v>0.8807830155838157</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.963358201250987</v>
+        <v>0.9628990134141474</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>626</v>
@@ -6995,19 +6995,19 @@
         <v>656150</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>642170</v>
+        <v>642939</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>665964</v>
+        <v>666035</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9536564287380599</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9333382181108163</v>
+        <v>0.9344550829433541</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9679197134731672</v>
+        <v>0.9680239123373906</v>
       </c>
     </row>
     <row r="18">
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7570</v>
+        <v>8078</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.00131498760506135</v>
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.006590029481056943</v>
+        <v>0.00703209564340576</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -7123,7 +7123,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6237</v>
+        <v>7404</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.002507042897277528</v>
@@ -7132,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.007584356996964436</v>
+        <v>0.009003997571095362</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -7141,19 +7141,19 @@
         <v>3572</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9853</v>
+        <v>10899</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001812318702247689</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0004300645193331492</v>
+        <v>0.0004313494277484474</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.004998923832634788</v>
+        <v>0.005529556865106759</v>
       </c>
     </row>
     <row r="20">
@@ -7170,19 +7170,19 @@
         <v>19969</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11755</v>
+        <v>11779</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>30600</v>
+        <v>31004</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01738353983372657</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01023286007300778</v>
+        <v>0.01025403920248212</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02663832596240258</v>
+        <v>0.0269900516607367</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>17</v>
@@ -7191,19 +7191,19 @@
         <v>18656</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>10746</v>
+        <v>10669</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>28278</v>
+        <v>29102</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02268742890344004</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01306764150297616</v>
+        <v>0.0129746322795128</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03438768682969127</v>
+        <v>0.03538964220439835</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>35</v>
@@ -7212,19 +7212,19 @@
         <v>38625</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>27789</v>
+        <v>27333</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>54061</v>
+        <v>53552</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0195963474003045</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01409885037162307</v>
+        <v>0.0138673265509109</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02742802653984238</v>
+        <v>0.0271697389745544</v>
       </c>
     </row>
     <row r="21">
@@ -7241,19 +7241,19 @@
         <v>18638</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11373</v>
+        <v>11479</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>29641</v>
+        <v>29359</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01622492838400597</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.009900800980113042</v>
+        <v>0.0099930267217178</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02580372111499616</v>
+        <v>0.02555811821334751</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>15</v>
@@ -7262,19 +7262,19 @@
         <v>15926</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>9198</v>
+        <v>9106</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>26121</v>
+        <v>25705</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01936684976041293</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01118563019848056</v>
+        <v>0.01107342726823541</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03176518224468009</v>
+        <v>0.03125916095498887</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>32</v>
@@ -7283,19 +7283,19 @@
         <v>34563</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>24371</v>
+        <v>24589</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>48186</v>
+        <v>48158</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01753575281942009</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01236473888989969</v>
+        <v>0.01247516762078012</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0244470202076711</v>
+        <v>0.02443318749176032</v>
       </c>
     </row>
     <row r="22">
@@ -7312,19 +7312,19 @@
         <v>1108587</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1094211</v>
+        <v>1094582</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1120009</v>
+        <v>1121247</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9650765441772061</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9525614632840286</v>
+        <v>0.9528840401376023</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.975019810412515</v>
+        <v>0.9760972037932126</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>761</v>
@@ -7333,19 +7333,19 @@
         <v>785677</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>773162</v>
+        <v>772002</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>796406</v>
+        <v>797053</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9554386784388695</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9402187024171276</v>
+        <v>0.9388091614948029</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9684854101817576</v>
+        <v>0.9692728673640464</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1827</v>
@@ -7354,19 +7354,19 @@
         <v>1894265</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1873212</v>
+        <v>1873752</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1910175</v>
+        <v>1909758</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9610555810780277</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9503745788519476</v>
+        <v>0.9506483934072575</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9691276087038079</v>
+        <v>0.9689163904695505</v>
       </c>
     </row>
     <row r="23">
@@ -7461,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5354</v>
+        <v>4967</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.001703491835480758</v>
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.008641137137479061</v>
+        <v>0.00801653208477947</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -7495,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5301</v>
+        <v>6324</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.000777841221715118</v>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.003906752506675776</v>
+        <v>0.004660631082235489</v>
       </c>
     </row>
     <row r="25">
@@ -7521,19 +7521,19 @@
         <v>7203</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3129</v>
+        <v>3118</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13757</v>
+        <v>14369</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0116261938382032</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.005050908444461645</v>
+        <v>0.005032136390669613</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02220482944962734</v>
+        <v>0.02319263381771633</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>11</v>
@@ -7542,19 +7542,19 @@
         <v>12680</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6748</v>
+        <v>6421</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22826</v>
+        <v>22068</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01719893314735644</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.009153080217011812</v>
+        <v>0.008709841034864713</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03096032906169741</v>
+        <v>0.02993185321501781</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>18</v>
@@ -7563,19 +7563,19 @@
         <v>19883</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>12299</v>
+        <v>12371</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>30604</v>
+        <v>31463</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0146543325439093</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.00906472233231469</v>
+        <v>0.009118018534730125</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02255609247776237</v>
+        <v>0.02318908244254412</v>
       </c>
     </row>
     <row r="26">
@@ -7592,19 +7592,19 @@
         <v>3167</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8601</v>
+        <v>8498</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.005112511267270949</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001601471997075975</v>
+        <v>0.001597855648602597</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01388220889910715</v>
+        <v>0.01371729344714145</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -7613,19 +7613,19 @@
         <v>4351</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11185</v>
+        <v>11675</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.005902177520768946</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.001327459204542015</v>
+        <v>0.001312286248127765</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01517031570695539</v>
+        <v>0.01583533275998119</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -7634,19 +7634,19 @@
         <v>7519</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2949</v>
+        <v>3155</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>13815</v>
+        <v>15080</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.005541603463074837</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002173534183805096</v>
+        <v>0.002325139668807867</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01018206958939012</v>
+        <v>0.01111405661809482</v>
       </c>
     </row>
     <row r="27">
@@ -7663,19 +7663,19 @@
         <v>608112</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>599288</v>
+        <v>600091</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>613410</v>
+        <v>613337</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9815578030590451</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9673139389436101</v>
+        <v>0.9686100046832212</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9901082880055413</v>
+        <v>0.9899911897674853</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>683</v>
@@ -7684,19 +7684,19 @@
         <v>720233</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>710364</v>
+        <v>709796</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>727346</v>
+        <v>727188</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9768988893318746</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9635127927873702</v>
+        <v>0.962741556481686</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9865456435782709</v>
+        <v>0.9863318411051225</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1268</v>
@@ -7705,19 +7705,19 @@
         <v>1328346</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1315009</v>
+        <v>1315283</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1336740</v>
+        <v>1338627</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9790262227713007</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9691968810193436</v>
+        <v>0.9693986383731452</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9852129254152571</v>
+        <v>0.9866035238159669</v>
       </c>
     </row>
     <row r="28">
@@ -7812,7 +7812,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6111</v>
+        <v>6717</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.004244591156540609</v>
@@ -7821,7 +7821,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02128311487247615</v>
+        <v>0.02339065330720138</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -7833,7 +7833,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5429</v>
+        <v>5366</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.001001937549945339</v>
@@ -7842,7 +7842,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.005022957210021876</v>
+        <v>0.004964754892351386</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -7854,7 +7854,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8588</v>
+        <v>8261</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.001682625449981475</v>
@@ -7863,7 +7863,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.006278094292619563</v>
+        <v>0.006039171332590216</v>
       </c>
     </row>
     <row r="30">
@@ -7880,19 +7880,19 @@
         <v>13028</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7181</v>
+        <v>7396</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>21395</v>
+        <v>22382</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04537170279735449</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02500684955550348</v>
+        <v>0.02575780929876086</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07451033476176738</v>
+        <v>0.07794836916843555</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>25</v>
@@ -7901,19 +7901,19 @@
         <v>27665</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>18115</v>
+        <v>17378</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>39247</v>
+        <v>39933</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02559793690271723</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01676170337484666</v>
+        <v>0.01607905430121423</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03631404508015162</v>
+        <v>0.03694921549012913</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>37</v>
@@ -7922,19 +7922,19 @@
         <v>40693</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>28752</v>
+        <v>29245</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>57269</v>
+        <v>56335</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02974878519414461</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02101899539209635</v>
+        <v>0.02137964652094291</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04186659729137688</v>
+        <v>0.04118366098608001</v>
       </c>
     </row>
     <row r="31">
@@ -7951,19 +7951,19 @@
         <v>9176</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4338</v>
+        <v>4226</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>16284</v>
+        <v>17200</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03195456795586118</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01510797087695873</v>
+        <v>0.01471802559484638</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05671053438276097</v>
+        <v>0.05989937476093239</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>24</v>
@@ -7972,19 +7972,19 @@
         <v>27398</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>17339</v>
+        <v>17862</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>39329</v>
+        <v>39847</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0253505757878712</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01604385356775604</v>
+        <v>0.01652768196942958</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03639079106112979</v>
+        <v>0.03686980451175109</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>33</v>
@@ -7993,19 +7993,19 @@
         <v>36573</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>26139</v>
+        <v>25869</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>52209</v>
+        <v>50409</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.026736865569654</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01910898601340806</v>
+        <v>0.01891146805028473</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0381674511739975</v>
+        <v>0.03685149055744232</v>
       </c>
     </row>
     <row r="32">
@@ -8022,19 +8022,19 @@
         <v>263722</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>253438</v>
+        <v>252626</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>271956</v>
+        <v>271627</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9184291380902437</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8826121916341235</v>
+        <v>0.8797860760915791</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9471018371300456</v>
+        <v>0.9459577662748732</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>941</v>
@@ -8043,19 +8043,19 @@
         <v>1024608</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1009667</v>
+        <v>1009286</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1039921</v>
+        <v>1040808</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9480495497594662</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9342248537347895</v>
+        <v>0.9338717034502969</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9622175947196251</v>
+        <v>0.963038652837508</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1191</v>
@@ -8064,19 +8064,19 @@
         <v>1288331</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1269059</v>
+        <v>1268702</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1306340</v>
+        <v>1306097</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9418317237862199</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.9277432160347233</v>
+        <v>0.9274823056867584</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9549976257470532</v>
+        <v>0.9548200521234557</v>
       </c>
     </row>
     <row r="33">
@@ -8168,19 +8168,19 @@
         <v>6767</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2268</v>
+        <v>2583</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>15123</v>
+        <v>15997</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.002000615591732651</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0006704619367047628</v>
+        <v>0.0007636070127875876</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.00447076331934095</v>
+        <v>0.004729186644646761</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>3</v>
@@ -8192,16 +8192,16 @@
         <v>850</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>8870</v>
+        <v>10060</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0008918399317204767</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0002411573014791673</v>
+        <v>0.0002409521083631178</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.002515825251144868</v>
+        <v>0.0028533269365423</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>8</v>
@@ -8210,19 +8210,19 @@
         <v>9912</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>4360</v>
+        <v>4587</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>18814</v>
+        <v>19944</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.001434741482178248</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0006310877917286849</v>
+        <v>0.0006640258429961685</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.002723371004328803</v>
+        <v>0.002886895954521739</v>
       </c>
     </row>
     <row r="35">
@@ -8239,19 +8239,19 @@
         <v>119674</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>98762</v>
+        <v>97610</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>140790</v>
+        <v>142472</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.03537865530518938</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02919660050904821</v>
+        <v>0.02885597668110289</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04162108066609434</v>
+        <v>0.0421183316024225</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>139</v>
@@ -8260,19 +8260,19 @@
         <v>152981</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>129977</v>
+        <v>127025</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>179260</v>
+        <v>178419</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04338904714699064</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03686474243036467</v>
+        <v>0.03602727575042789</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.05084241443364575</v>
+        <v>0.05060400538819149</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>249</v>
@@ -8281,19 +8281,19 @@
         <v>272655</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>236798</v>
+        <v>235412</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>306735</v>
+        <v>307734</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.03946683428867408</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03427654861775949</v>
+        <v>0.03407600556894547</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04440005710593871</v>
+        <v>0.04454456121900893</v>
       </c>
     </row>
     <row r="36">
@@ -8310,19 +8310,19 @@
         <v>156345</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>134309</v>
+        <v>132871</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>183575</v>
+        <v>184466</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.0462197030479703</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03970511579453032</v>
+        <v>0.03928006369796601</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05426961083791494</v>
+        <v>0.05453297360371565</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>113</v>
@@ -8331,19 +8331,19 @@
         <v>121185</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>99910</v>
+        <v>100784</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>145886</v>
+        <v>144853</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03437092855747367</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0283370307623904</v>
+        <v>0.02858469929379015</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.04137681158430283</v>
+        <v>0.04108374561027866</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>256</v>
@@ -8352,19 +8352,19 @@
         <v>277530</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>249639</v>
+        <v>245685</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>317143</v>
+        <v>312637</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.04017256929861736</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03613537867756176</v>
+        <v>0.03556303538668334</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0459065457568611</v>
+        <v>0.04525434479473994</v>
       </c>
     </row>
     <row r="37">
@@ -8381,19 +8381,19 @@
         <v>3099869</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3063326</v>
+        <v>3063688</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>3130220</v>
+        <v>3136254</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9164010260551076</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9055978000435214</v>
+        <v>0.9057048801631767</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9253733406051481</v>
+        <v>0.9271573759457007</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3066</v>
@@ -8402,19 +8402,19 @@
         <v>3248481</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3213236</v>
+        <v>3214223</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>3282725</v>
+        <v>3280109</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9213481843638152</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9113518291156893</v>
+        <v>0.9116317720326582</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9310604797390601</v>
+        <v>0.9303184989458873</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>6029</v>
@@ -8423,19 +8423,19 @@
         <v>6348351</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>6294870</v>
+        <v>6302886</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>6393665</v>
+        <v>6395602</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9189258549305304</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.9111845274038473</v>
+        <v>0.9123448577846525</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9254850661146717</v>
+        <v>0.9257655711161666</v>
       </c>
     </row>
     <row r="38">
@@ -8816,19 +8816,19 @@
         <v>115834</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>97646</v>
+        <v>95045</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>135455</v>
+        <v>135870</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2103705993177059</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1773384635957038</v>
+        <v>0.1726150714398384</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2460057121631866</v>
+        <v>0.2467582715015915</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>186</v>
@@ -8837,19 +8837,19 @@
         <v>128837</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>114193</v>
+        <v>111490</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>146281</v>
+        <v>145041</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2637886924073426</v>
+        <v>0.2637886924073425</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2338057443370932</v>
+        <v>0.228269869236395</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.299503266741974</v>
+        <v>0.2969657909157282</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>306</v>
@@ -8858,19 +8858,19 @@
         <v>244671</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>221712</v>
+        <v>221665</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>272560</v>
+        <v>269743</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2354805571220184</v>
+        <v>0.2354805571220183</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2133839562103245</v>
+        <v>0.2133384112744146</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2623222936100868</v>
+        <v>0.2596104929683296</v>
       </c>
     </row>
     <row r="6">
@@ -8887,19 +8887,19 @@
         <v>47616</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>35992</v>
+        <v>36798</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>60627</v>
+        <v>62493</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08647778160257859</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06536703346020066</v>
+        <v>0.06682994410975238</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1101069131155488</v>
+        <v>0.1134960596601046</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>69</v>
@@ -8908,19 +8908,19 @@
         <v>45171</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>36214</v>
+        <v>34826</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>56590</v>
+        <v>56673</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.09248648417460428</v>
+        <v>0.0924864841746043</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07414568464079034</v>
+        <v>0.07130451027870606</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1158653177670089</v>
+        <v>0.1160352757225199</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>124</v>
@@ -8929,19 +8929,19 @@
         <v>92788</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>77366</v>
+        <v>76412</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>111327</v>
+        <v>110514</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.08930226033844535</v>
+        <v>0.08930226033844534</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07446003138026487</v>
+        <v>0.07354136632387946</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1071448644859386</v>
+        <v>0.1063625519440516</v>
       </c>
     </row>
     <row r="7">
@@ -8958,19 +8958,19 @@
         <v>387168</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>366194</v>
+        <v>365961</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>409395</v>
+        <v>407985</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7031516190797155</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6650605732576815</v>
+        <v>0.6646367472540524</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7435192118170494</v>
+        <v>0.7409582244563987</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>431</v>
@@ -8979,19 +8979,19 @@
         <v>314402</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>295412</v>
+        <v>296006</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>331001</v>
+        <v>332871</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6437248234180533</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6048435669565233</v>
+        <v>0.6060591675691764</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6777099449236685</v>
+        <v>0.6815396912991625</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>810</v>
@@ -9000,19 +9000,19 @@
         <v>701570</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>672715</v>
+        <v>670044</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>729293</v>
+        <v>728511</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6752171825395364</v>
+        <v>0.6752171825395363</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6474458610408443</v>
+        <v>0.6448753193768969</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7018988184664895</v>
+        <v>0.7011461089616986</v>
       </c>
     </row>
     <row r="8">
@@ -9120,7 +9120,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>2238</v>
+        <v>2186</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.001042046489376097</v>
@@ -9129,7 +9129,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.005289437080429556</v>
+        <v>0.005165572038306651</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -9141,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>2215</v>
+        <v>2088</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0004864920755501919</v>
@@ -9150,7 +9150,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.002444277560268786</v>
+        <v>0.002304071752744397</v>
       </c>
     </row>
     <row r="10">
@@ -9167,19 +9167,19 @@
         <v>96655</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>77427</v>
+        <v>77559</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>115665</v>
+        <v>116145</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2000258116729081</v>
+        <v>0.200025811672908</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1602331437399494</v>
+        <v>0.1605080152834527</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2393665369286503</v>
+        <v>0.2403612066024831</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>121</v>
@@ -9188,19 +9188,19 @@
         <v>86495</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>72732</v>
+        <v>73634</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>101441</v>
+        <v>100386</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2044107177815505</v>
+        <v>0.2044107177815504</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1718851660497719</v>
+        <v>0.1740159136753071</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2397329817499139</v>
+        <v>0.2372392783840031</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>210</v>
@@ -9209,19 +9209,19 @@
         <v>183150</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>160806</v>
+        <v>162380</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>209211</v>
+        <v>208733</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2020729584131301</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1774210420416036</v>
+        <v>0.1791568915879365</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2308262699500553</v>
+        <v>0.2302999268229889</v>
       </c>
     </row>
     <row r="11">
@@ -9238,19 +9238,19 @@
         <v>52552</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>40312</v>
+        <v>39659</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>69852</v>
+        <v>68065</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1087560614332575</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08342409242753086</v>
+        <v>0.08207396503813075</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1445567314869924</v>
+        <v>0.1408600169172692</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>32</v>
@@ -9259,19 +9259,19 @@
         <v>21063</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14619</v>
+        <v>14325</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29834</v>
+        <v>29639</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.04977793754746448</v>
+        <v>0.04977793754746449</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0345493530950722</v>
+        <v>0.03385490547776302</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07050654336489878</v>
+        <v>0.07004517544059721</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>84</v>
@@ -9280,19 +9280,19 @@
         <v>73615</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>58862</v>
+        <v>58234</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>90729</v>
+        <v>90621</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08122140708358955</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06494343062169157</v>
+        <v>0.06425097082545284</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1001031650609738</v>
+        <v>0.09998418310130061</v>
       </c>
     </row>
     <row r="12">
@@ -9309,19 +9309,19 @@
         <v>334005</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>312840</v>
+        <v>311441</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>355554</v>
+        <v>357160</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6912181268938346</v>
+        <v>0.6912181268938344</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.647417429555183</v>
+        <v>0.6445218343702963</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7358138029613728</v>
+        <v>0.7391375055169577</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>436</v>
@@ -9330,19 +9330,19 @@
         <v>315144</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>298359</v>
+        <v>300360</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>329542</v>
+        <v>329524</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.744769298181609</v>
+        <v>0.7447692981816088</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7051020137306105</v>
+        <v>0.7098313154038501</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7787950965969298</v>
+        <v>0.7787541317326897</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>776</v>
@@ -9351,19 +9351,19 @@
         <v>649149</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>621664</v>
+        <v>622510</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>674856</v>
+        <v>676465</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.7162191424277302</v>
+        <v>0.7162191424277301</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.685894055319644</v>
+        <v>0.6868278086707087</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7445824232437833</v>
+        <v>0.7463575184426355</v>
       </c>
     </row>
     <row r="13">
@@ -9502,19 +9502,19 @@
         <v>33580</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>22384</v>
+        <v>23387</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>47713</v>
+        <v>46771</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.07120175745905016</v>
+        <v>0.07120175745905018</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04746258351022715</v>
+        <v>0.04958967795586336</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1011707088278632</v>
+        <v>0.09917235499621831</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>29</v>
@@ -9523,19 +9523,19 @@
         <v>18970</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>13501</v>
+        <v>13133</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>26718</v>
+        <v>25930</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.1011733556061743</v>
+        <v>0.1011733556061742</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07200399195716102</v>
+        <v>0.07004403829439765</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1424974227530027</v>
+        <v>0.1382969094616865</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>61</v>
@@ -9544,19 +9544,19 @@
         <v>52549</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>40648</v>
+        <v>39929</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>68123</v>
+        <v>66548</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0797278028905495</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0616712060690638</v>
+        <v>0.06058084914320602</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1033557766765208</v>
+        <v>0.1009662513524132</v>
       </c>
     </row>
     <row r="16">
@@ -9576,16 +9576,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10421</v>
+        <v>9462</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.004974348014294747</v>
+        <v>0.004974348014294746</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02209580758174973</v>
+        <v>0.02006306748234695</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -9594,19 +9594,19 @@
         <v>2421</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>702</v>
+        <v>629</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5885</v>
+        <v>5815</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01290987414221862</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003745714029358234</v>
+        <v>0.003354131083865339</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03138729248541103</v>
+        <v>0.03101588259539977</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -9615,19 +9615,19 @@
         <v>4767</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1322</v>
+        <v>1433</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13259</v>
+        <v>13654</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007231773726377472</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002005173256342703</v>
+        <v>0.002174333980409893</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02011722748674661</v>
+        <v>0.0207155037107335</v>
       </c>
     </row>
     <row r="17">
@@ -9644,19 +9644,19 @@
         <v>435686</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>420295</v>
+        <v>421624</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>447512</v>
+        <v>446786</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9238238945266551</v>
+        <v>0.923823894526655</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.891188340253571</v>
+        <v>0.8940055753705467</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9488986212684062</v>
+        <v>0.9473602929110977</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>256</v>
@@ -9665,19 +9665,19 @@
         <v>166107</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>158355</v>
+        <v>158437</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>172462</v>
+        <v>172417</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8859167702516071</v>
+        <v>0.8859167702516072</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8445739899123322</v>
+        <v>0.8450100427278473</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9198100194180895</v>
+        <v>0.9195700796720049</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>711</v>
@@ -9686,19 +9686,19 @@
         <v>601793</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>586239</v>
+        <v>587492</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>615339</v>
+        <v>615042</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9130404233830731</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8894414974232359</v>
+        <v>0.8913423406809451</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9335923099081471</v>
+        <v>0.9331411948246512</v>
       </c>
     </row>
     <row r="18">
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5232</v>
+        <v>5280</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0009303096373427336</v>
@@ -9802,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.004622801207855892</v>
+        <v>0.004664690193057405</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -9827,16 +9827,16 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5761</v>
+        <v>5190</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.0005283169159123897</v>
+        <v>0.0005283169159123898</v>
       </c>
       <c r="V19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.002890377048181835</v>
+        <v>0.002604204019272931</v>
       </c>
     </row>
     <row r="20">
@@ -9853,19 +9853,19 @@
         <v>54976</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>42039</v>
+        <v>40658</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>74674</v>
+        <v>72448</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04857240687458168</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0371419802277198</v>
+        <v>0.03592236415791474</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06597580917311785</v>
+        <v>0.06400893055932996</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>98</v>
@@ -9874,19 +9874,19 @@
         <v>74340</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>60785</v>
+        <v>61158</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>90530</v>
+        <v>91693</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08631973462855032</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07058067784646381</v>
+        <v>0.07101418502273758</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1051189205825834</v>
+        <v>0.1064701548016437</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>147</v>
@@ -9895,19 +9895,19 @@
         <v>129316</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>107706</v>
+        <v>108408</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>151396</v>
+        <v>152919</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.06488326769064642</v>
+        <v>0.06488326769064644</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05404091176060983</v>
+        <v>0.05439278249908916</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07596168101471425</v>
+        <v>0.07672621106087962</v>
       </c>
     </row>
     <row r="21">
@@ -9924,19 +9924,19 @@
         <v>12582</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5635</v>
+        <v>5745</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>26615</v>
+        <v>26473</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01111672424262079</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.004978478829001002</v>
+        <v>0.005075435422485924</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02351476000780676</v>
+        <v>0.0233896079276412</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -9945,19 +9945,19 @@
         <v>7462</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3831</v>
+        <v>4246</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>12248</v>
+        <v>13339</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.008664682885147263</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0044486933275499</v>
+        <v>0.004930224396833223</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01422173514410236</v>
+        <v>0.01548819445792788</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>22</v>
@@ -9966,19 +9966,19 @@
         <v>20045</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>12076</v>
+        <v>12228</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>34392</v>
+        <v>33027</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01005718154975347</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.006058999834513014</v>
+        <v>0.00613524060521842</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01725617927654932</v>
+        <v>0.01657102214149113</v>
       </c>
     </row>
     <row r="22">
@@ -9995,19 +9995,19 @@
         <v>1063231</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1043751</v>
+        <v>1041794</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1080672</v>
+        <v>1080079</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9393805592454547</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.922169165516996</v>
+        <v>0.9204400652867142</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9547897524242358</v>
+        <v>0.954265941109036</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1119</v>
@@ -10016,19 +10016,19 @@
         <v>779409</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>762603</v>
+        <v>762105</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>793531</v>
+        <v>793462</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9050155824863024</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8855004609643434</v>
+        <v>0.8849226842372234</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9214125608061551</v>
+        <v>0.9213331844909556</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2178</v>
@@ -10037,19 +10037,19 @@
         <v>1842641</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1818494</v>
+        <v>1816917</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1866931</v>
+        <v>1865406</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9245312338436877</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9124159002038598</v>
+        <v>0.9116244185348178</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9367184818827823</v>
+        <v>0.9359537018847424</v>
       </c>
     </row>
     <row r="23">
@@ -10144,7 +10144,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4398</v>
+        <v>4781</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.00158265320354866</v>
@@ -10153,7 +10153,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.007742976603401012</v>
+        <v>0.008418235519765687</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -10162,19 +10162,19 @@
         <v>4134</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1359</v>
+        <v>1340</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9838</v>
+        <v>9494</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.004979442973322394</v>
+        <v>0.004979442973322393</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.001636704560189776</v>
+        <v>0.001614695018781853</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01185061579241847</v>
+        <v>0.01143622536072413</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -10183,19 +10183,19 @@
         <v>5032</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1926</v>
+        <v>2054</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11557</v>
+        <v>10843</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.003599523439906903</v>
+        <v>0.003599523439906902</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.001377351817479077</v>
+        <v>0.001469211886070795</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.00826593734740589</v>
+        <v>0.007755709253345599</v>
       </c>
     </row>
     <row r="25">
@@ -10212,19 +10212,19 @@
         <v>17707</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10306</v>
+        <v>9522</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>27971</v>
+        <v>29777</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03117605970872653</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01814536546810024</v>
+        <v>0.01676541865170576</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04924796131791328</v>
+        <v>0.05242732176432475</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>42</v>
@@ -10233,19 +10233,19 @@
         <v>29675</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21262</v>
+        <v>21356</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>39462</v>
+        <v>39800</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03574748205109592</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02561330898503473</v>
+        <v>0.0257267123912336</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04753684042198543</v>
+        <v>0.04794453363792446</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>57</v>
@@ -10254,19 +10254,19 @@
         <v>47382</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>36612</v>
+        <v>35814</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>61915</v>
+        <v>62499</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.033890377133429</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0261873997482318</v>
+        <v>0.0256160133861268</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04428503771867164</v>
+        <v>0.04470281337423661</v>
       </c>
     </row>
     <row r="26">
@@ -10286,16 +10286,16 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9726</v>
+        <v>9639</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.004454485592076276</v>
+        <v>0.004454485592076275</v>
       </c>
       <c r="H26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01712479556796814</v>
+        <v>0.01697185505088861</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -10304,19 +10304,19 @@
         <v>3340</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1239</v>
+        <v>1265</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7354</v>
+        <v>7625</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.004023079549166792</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.001492451524246244</v>
+        <v>0.00152384084381464</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.008859099876401627</v>
+        <v>0.009185640625628946</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -10325,19 +10325,19 @@
         <v>5870</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2780</v>
+        <v>2666</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>14030</v>
+        <v>13493</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004198334912551831</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00198865804928004</v>
+        <v>0.001906949988314493</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01003509217359175</v>
+        <v>0.009650870094195746</v>
       </c>
     </row>
     <row r="27">
@@ -10354,19 +10354,19 @@
         <v>546828</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>535016</v>
+        <v>534718</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>555578</v>
+        <v>555593</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9627868014956485</v>
+        <v>0.9627868014956484</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9419898488815315</v>
+        <v>0.9414644438042065</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9781926738655216</v>
+        <v>0.9782187920081359</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1237</v>
@@ -10375,19 +10375,19 @@
         <v>792979</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>781765</v>
+        <v>782059</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>802419</v>
+        <v>802745</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.955249995426415</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9417412798784794</v>
+        <v>0.942096143902191</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9666221695949822</v>
+        <v>0.9670142618268807</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1766</v>
@@ -10396,19 +10396,19 @@
         <v>1339807</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1323856</v>
+        <v>1322245</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1351910</v>
+        <v>1352549</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.9583117645141125</v>
+        <v>0.9583117645141124</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9469027064051441</v>
+        <v>0.9457505329063907</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.966968526221104</v>
+        <v>0.9674258336736857</v>
       </c>
     </row>
     <row r="28">
@@ -10503,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9152</v>
+        <v>12036</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.007680611438948582</v>
@@ -10512,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03857905321021107</v>
+        <v>0.0507380142689443</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -10524,7 +10524,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4515</v>
+        <v>4649</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.001544999363790344</v>
@@ -10533,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.00534785708133929</v>
+        <v>0.005506126257549076</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -10542,19 +10542,19 @@
         <v>3126</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>10349</v>
+        <v>11757</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.002890839103099457</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0005517378583313043</v>
+        <v>0.0005548065654569375</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.009569004502987529</v>
+        <v>0.01087070588199891</v>
       </c>
     </row>
     <row r="30">
@@ -10571,19 +10571,19 @@
         <v>17566</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6758</v>
+        <v>6657</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>35464</v>
+        <v>36545</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07404766958178226</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02848694425491839</v>
+        <v>0.02806155283184667</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1494947796843057</v>
+        <v>0.1540512367199074</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>50</v>
@@ -10592,19 +10592,19 @@
         <v>39523</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>29318</v>
+        <v>28348</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>54743</v>
+        <v>54788</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.04681249285563213</v>
+        <v>0.04681249285563214</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03472571802575304</v>
+        <v>0.03357595683487883</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06484000654757348</v>
+        <v>0.06489259769398956</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>56</v>
@@ -10613,19 +10613,19 @@
         <v>57089</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>42187</v>
+        <v>41150</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>81925</v>
+        <v>80040</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.05278649882213781</v>
+        <v>0.0527864988221378</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03900708333060282</v>
+        <v>0.03804904353652692</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07575035747940149</v>
+        <v>0.07400739055522296</v>
       </c>
     </row>
     <row r="31">
@@ -10642,19 +10642,19 @@
         <v>10202</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2561</v>
+        <v>2908</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>24893</v>
+        <v>24922</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04300612425231508</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01079563385365381</v>
+        <v>0.01225650851119067</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1049307692021414</v>
+        <v>0.1050532823907749</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>28</v>
@@ -10663,19 +10663,19 @@
         <v>18131</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>12181</v>
+        <v>12496</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>26906</v>
+        <v>26330</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02147539686544691</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01442786540629401</v>
+        <v>0.01480058651882997</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03186908143193547</v>
+        <v>0.03118647822811345</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>32</v>
@@ -10684,19 +10684,19 @@
         <v>28334</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>17529</v>
+        <v>19341</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>44295</v>
+        <v>47077</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02619813816305917</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01620821314675791</v>
+        <v>0.01788368339675842</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04095630616650765</v>
+        <v>0.04352898379090253</v>
       </c>
     </row>
     <row r="32">
@@ -10713,19 +10713,19 @@
         <v>207638</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>187544</v>
+        <v>187104</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>222891</v>
+        <v>220995</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8752655947269541</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7905652693601561</v>
+        <v>0.7887083489389016</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9395645572614657</v>
+        <v>0.931572375867124</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1079</v>
@@ -10734,19 +10734,19 @@
         <v>785322</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>769999</v>
+        <v>769122</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>798746</v>
+        <v>797631</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.9301671109151305</v>
+        <v>0.9301671109151306</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9120176529180101</v>
+        <v>0.910978902529764</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9460669184951825</v>
+        <v>0.9447462820975202</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1180</v>
@@ -10755,19 +10755,19 @@
         <v>992960</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>966424</v>
+        <v>966387</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1012817</v>
+        <v>1014823</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.9181245239117036</v>
+        <v>0.9181245239117037</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8935886703758452</v>
+        <v>0.8935543646319141</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9364850950749819</v>
+        <v>0.9383394388426808</v>
       </c>
     </row>
     <row r="33">
@@ -10859,19 +10859,19 @@
         <v>3774</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>11323</v>
+        <v>13045</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.00109627710365815</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0002618095692672041</v>
+        <v>0.0002640384419258205</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.003289229818608284</v>
+        <v>0.00378953208837368</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>8</v>
@@ -10880,19 +10880,19 @@
         <v>5879</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2648</v>
+        <v>2838</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>11582</v>
+        <v>12158</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.001617456001243025</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0007285317968212631</v>
+        <v>0.0007807058435758442</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.003186623888341849</v>
+        <v>0.003344964235115967</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>11</v>
@@ -10901,19 +10901,19 @@
         <v>9653</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>5151</v>
+        <v>4988</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>18533</v>
+        <v>17367</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.001363943394503131</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0007278667177481235</v>
+        <v>0.0007047449845824354</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.002618738656213066</v>
+        <v>0.002453896745036907</v>
       </c>
     </row>
     <row r="35">
@@ -10930,19 +10930,19 @@
         <v>336318</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>300488</v>
+        <v>299947</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>378514</v>
+        <v>378187</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.09769645039403885</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.08728837426521377</v>
+        <v>0.08713111612308939</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1099539731792978</v>
+        <v>0.1098590642243317</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>526</v>
@@ -10951,19 +10951,19 @@
         <v>377839</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>345236</v>
+        <v>346692</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>411445</v>
+        <v>410872</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1039542070639607</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09498422195533728</v>
+        <v>0.09538465565566621</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.113200012230764</v>
+        <v>0.1130424260600743</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>837</v>
@@ -10972,19 +10972,19 @@
         <v>714157</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>664700</v>
+        <v>664879</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>770511</v>
+        <v>765663</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.1009102998507422</v>
+        <v>0.1009102998507423</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0939220745225388</v>
+        <v>0.09394727242861788</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1088731081885126</v>
+        <v>0.1081880936298919</v>
       </c>
     </row>
     <row r="36">
@@ -11001,19 +11001,19 @@
         <v>127829</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>104597</v>
+        <v>105774</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>154892</v>
+        <v>154143</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03713288036606208</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03038420996573767</v>
+        <v>0.03072611321622797</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04499433378320931</v>
+        <v>0.04477683932994323</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>151</v>
@@ -11022,19 +11022,19 @@
         <v>97588</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>82080</v>
+        <v>83967</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>113995</v>
+        <v>117368</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.02684925564997758</v>
+        <v>0.02684925564997757</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02258265269991691</v>
+        <v>0.02310168975467938</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03136320304798591</v>
+        <v>0.03229130137486549</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>274</v>
@@ -11043,19 +11043,19 @@
         <v>225417</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>197806</v>
+        <v>196946</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>254431</v>
+        <v>256166</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03185143152584335</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02794996481047824</v>
+        <v>0.02782846308878876</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03595110493018093</v>
+        <v>0.03619619869110791</v>
       </c>
     </row>
     <row r="37">
@@ -11072,19 +11072,19 @@
         <v>2974555</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2927743</v>
+        <v>2928194</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>3015574</v>
+        <v>3015668</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.8640743921362412</v>
+        <v>0.864074392136241</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8504759949597673</v>
+        <v>0.8506068554597068</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.8759899190010114</v>
+        <v>0.8760170428564006</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>4558</v>
@@ -11093,19 +11093,19 @@
         <v>3153364</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3116692</v>
+        <v>3116375</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>3190971</v>
+        <v>3188026</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.8675790812848184</v>
+        <v>0.8675790812848186</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.8574896135255714</v>
+        <v>0.8574024737033502</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.8779260263231466</v>
+        <v>0.8771156060069456</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>7421</v>
@@ -11114,19 +11114,19 @@
         <v>6127919</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>6065520</v>
+        <v>6071026</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>6179182</v>
+        <v>6184866</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.8658743252289112</v>
+        <v>0.8658743252289114</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.8570573834460975</v>
+        <v>0.857835359335133</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.8731178311663172</v>
+        <v>0.8739209251452819</v>
       </c>
     </row>
     <row r="38">
